--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
